--- a/misc/performance/naive/results.xlsx
+++ b/misc/performance/naive/results.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="37400" windowHeight="21160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6220" yWindow="22960" windowWidth="37400" windowHeight="21160" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Beaglebone" sheetId="1" r:id="rId1"/>
     <sheet name="Odroid" sheetId="2" r:id="rId2"/>
     <sheet name="Desktop" sheetId="3" r:id="rId3"/>
     <sheet name="All" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId5"/>
-    <sheet name="Pivot" sheetId="5" r:id="rId6"/>
-    <sheet name="FPS" sheetId="6" r:id="rId7"/>
-    <sheet name="Overall" sheetId="9" r:id="rId8"/>
+    <sheet name="detectCorners" sheetId="5" r:id="rId5"/>
+    <sheet name="FPS" sheetId="6" r:id="rId6"/>
+    <sheet name="Overall" sheetId="9" r:id="rId7"/>
+    <sheet name="Compiler Flags" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="51">
   <si>
     <t>No optimisations</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Values</t>
   </si>
   <si>
-    <t>Count of Canny</t>
-  </si>
-  <si>
     <t>capture avg</t>
   </si>
   <si>
@@ -163,25 +160,28 @@
     <t>estimatePose %</t>
   </si>
   <si>
-    <t>Count of findContours</t>
+    <t>medianBlur avg</t>
   </si>
   <si>
-    <t>Count of approxPolydp1</t>
+    <t>Canny avg</t>
   </si>
   <si>
-    <t>Count of getIndexOfOuterSquare</t>
+    <t>findContours avg</t>
   </si>
   <si>
-    <t>Count of approxPolyDP2</t>
+    <t>approxPolydp1 avg</t>
   </si>
   <si>
-    <t>Count of labelPolygons</t>
+    <t>getIndexOfOuterSquare avg</t>
   </si>
   <si>
-    <t>Count of labelCorners</t>
+    <t>approxPolyDP2 avg</t>
   </si>
   <si>
-    <t>medianBlur avg</t>
+    <t>labelPolygons avg</t>
+  </si>
+  <si>
+    <t>labelCorners avg</t>
   </si>
 </sst>
 </file>
@@ -254,8 +254,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -410,7 +414,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -482,6 +486,8 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -553,9 +559,14 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -574,6 +585,992 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medianBlur avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.23162485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0217329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.085056366666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canny avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.57025745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1898169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6660552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>findContours avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2438823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0128414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0472066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approxPolydp1 avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0924845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0027595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0153482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>getIndexOfOuterSquare avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$F$5:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00025225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.13E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.88333333333333E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approxPolyDP2 avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$G$5:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0111386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0005155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00220493333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>labelPolygons avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0003989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>labelCorners avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00116505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000230666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2138005704"/>
+        <c:axId val="-2135408760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2138005704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135408760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2135408760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138005704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medianBlur avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.23162485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0217329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.085056366666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canny avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.57025745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1898169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6660552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>findContours avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$D$5:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2438823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0128414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0472066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approxPolydp1 avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0924845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0027595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0153482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>getIndexOfOuterSquare avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$F$5:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00025225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.13E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.88333333333333E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approxPolyDP2 avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$G$5:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0111386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0005155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00220493333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>labelPolygons avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0003989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>detectCorners!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>labelCorners avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>detectCorners!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>beaglebone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>desktop</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>odroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>detectCorners!$I$5:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.00116505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000230666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2140745320"/>
+        <c:axId val="-2140845144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140745320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140845144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140845144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140745320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -801,7 +1798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1090,7 +2087,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1379,7 +2376,565 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medianBlur avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0893445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0883418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0774828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canny avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7635263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6133614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6212779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>findContours avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0436723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0493271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0486204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approxPolydp1 avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0128501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0158647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0173298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>getIndexOfOuterSquare avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.33E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.63E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.69E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>approxPolyDP2 avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0023132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0021158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0021858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>labelPolygons avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$H$6:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.02E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.28E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>labelCorners avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compiler Flags'!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON+TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compiler Flags'!$I$6:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0002309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0002424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0002187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2133541640"/>
+        <c:axId val="-2130312568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2133541640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130312568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2130312568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133541640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1414,7 +2969,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1471,6 +3026,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4503,7 +6093,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -4523,11 +6113,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5102,18 +6692,21 @@
       <x v="7"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
   <dataFields count="8">
     <dataField name="medianBlur avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Count of Canny" fld="11" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of findContours" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of approxPolydp1" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of getIndexOfOuterSquare" fld="14" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of approxPolyDP2" fld="15" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of labelPolygons" fld="16" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of labelCorners" fld="17" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5214,7 +6807,7 @@
     <dataField name="Average of fps" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5823,7 +7416,7 @@
     <dataField name="estimatePose avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6432,7 +8025,7 @@
     <dataField name="estimatePose %" fld="21" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6445,31 +8038,633 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:R41" totalsRowShown="0">
-  <autoFilter ref="A1:R41"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="board"/>
-    <tableColumn id="2" name="version"/>
-    <tableColumn id="3" name="frame"/>
-    <tableColumn id="4" name="frames"/>
-    <tableColumn id="5" name="seconds"/>
-    <tableColumn id="6" name="fps"/>
-    <tableColumn id="7" name="capture"/>
-    <tableColumn id="8" name="detectCorners"/>
-    <tableColumn id="9" name="calibrateImagePoints"/>
-    <tableColumn id="10" name="estimatePose"/>
-    <tableColumn id="11" name="medianBlur"/>
-    <tableColumn id="12" name="Canny"/>
-    <tableColumn id="13" name="findContours"/>
-    <tableColumn id="14" name="approxPolydp1"/>
-    <tableColumn id="15" name="getIndexOfOuterSquare"/>
-    <tableColumn id="16" name="approxPolyDP2"/>
-    <tableColumn id="17" name="labelPolygons"/>
-    <tableColumn id="18" name="labelCorners"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="22">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="122">
+        <item x="106"/>
+        <item x="100"/>
+        <item x="109"/>
+        <item x="113"/>
+        <item x="102"/>
+        <item x="117"/>
+        <item x="114"/>
+        <item x="108"/>
+        <item x="103"/>
+        <item x="115"/>
+        <item x="110"/>
+        <item x="112"/>
+        <item x="111"/>
+        <item x="107"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="104"/>
+        <item x="118"/>
+        <item x="101"/>
+        <item x="105"/>
+        <item x="92"/>
+        <item x="91"/>
+        <item x="59"/>
+        <item x="50"/>
+        <item x="90"/>
+        <item x="57"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="56"/>
+        <item x="96"/>
+        <item x="55"/>
+        <item x="97"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="99"/>
+        <item x="82"/>
+        <item x="84"/>
+        <item x="58"/>
+        <item x="98"/>
+        <item x="85"/>
+        <item x="81"/>
+        <item x="51"/>
+        <item x="87"/>
+        <item x="49"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="54"/>
+        <item x="40"/>
+        <item x="48"/>
+        <item x="88"/>
+        <item x="44"/>
+        <item x="80"/>
+        <item x="86"/>
+        <item x="45"/>
+        <item x="89"/>
+        <item x="83"/>
+        <item x="43"/>
+        <item x="77"/>
+        <item x="46"/>
+        <item x="72"/>
+        <item x="47"/>
+        <item x="71"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="70"/>
+        <item x="63"/>
+        <item x="78"/>
+        <item x="66"/>
+        <item x="73"/>
+        <item x="68"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="69"/>
+        <item x="76"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="79"/>
+        <item x="67"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="35"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="34"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="30"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="120"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="122">
+        <item x="59"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="90"/>
+        <item x="96"/>
+        <item x="50"/>
+        <item x="93"/>
+        <item x="56"/>
+        <item x="53"/>
+        <item x="97"/>
+        <item x="54"/>
+        <item x="52"/>
+        <item x="99"/>
+        <item x="55"/>
+        <item x="98"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="95"/>
+        <item x="51"/>
+        <item x="77"/>
+        <item x="85"/>
+        <item x="42"/>
+        <item x="81"/>
+        <item x="84"/>
+        <item x="82"/>
+        <item x="72"/>
+        <item x="74"/>
+        <item x="49"/>
+        <item x="70"/>
+        <item x="94"/>
+        <item x="44"/>
+        <item x="87"/>
+        <item x="80"/>
+        <item x="40"/>
+        <item x="71"/>
+        <item x="75"/>
+        <item x="78"/>
+        <item x="73"/>
+        <item x="86"/>
+        <item x="41"/>
+        <item x="48"/>
+        <item x="88"/>
+        <item x="76"/>
+        <item x="43"/>
+        <item x="83"/>
+        <item x="66"/>
+        <item x="69"/>
+        <item x="65"/>
+        <item x="46"/>
+        <item x="89"/>
+        <item x="68"/>
+        <item x="62"/>
+        <item x="79"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="60"/>
+        <item x="47"/>
+        <item x="67"/>
+        <item x="113"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="110"/>
+        <item x="100"/>
+        <item x="119"/>
+        <item x="107"/>
+        <item x="101"/>
+        <item x="103"/>
+        <item x="115"/>
+        <item x="108"/>
+        <item x="117"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="114"/>
+        <item x="109"/>
+        <item x="102"/>
+        <item x="111"/>
+        <item x="118"/>
+        <item x="116"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="33"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="34"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="120"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="122">
+        <item x="116"/>
+        <item x="118"/>
+        <item x="109"/>
+        <item x="114"/>
+        <item x="102"/>
+        <item x="117"/>
+        <item x="111"/>
+        <item x="108"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="100"/>
+        <item x="115"/>
+        <item x="103"/>
+        <item x="119"/>
+        <item x="110"/>
+        <item x="107"/>
+        <item x="101"/>
+        <item x="106"/>
+        <item x="113"/>
+        <item x="105"/>
+        <item x="92"/>
+        <item x="57"/>
+        <item x="91"/>
+        <item x="50"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="53"/>
+        <item x="90"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="94"/>
+        <item x="93"/>
+        <item x="95"/>
+        <item x="99"/>
+        <item x="58"/>
+        <item x="51"/>
+        <item x="82"/>
+        <item x="98"/>
+        <item x="84"/>
+        <item x="87"/>
+        <item x="41"/>
+        <item x="85"/>
+        <item x="81"/>
+        <item x="49"/>
+        <item x="42"/>
+        <item x="40"/>
+        <item x="54"/>
+        <item x="48"/>
+        <item x="88"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="89"/>
+        <item x="80"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="43"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="77"/>
+        <item x="71"/>
+        <item x="75"/>
+        <item x="72"/>
+        <item x="74"/>
+        <item x="63"/>
+        <item x="70"/>
+        <item x="78"/>
+        <item x="66"/>
+        <item x="73"/>
+        <item x="68"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="76"/>
+        <item x="61"/>
+        <item x="69"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="79"/>
+        <item x="67"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="33"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="29"/>
+        <item x="120"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="53"/>
+        <item x="51"/>
+        <item x="55"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="57"/>
+        <item x="60"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="25"/>
+        <item x="47"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="36"/>
+        <item x="32"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="40"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="61">
+        <item x="0"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="50"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="55"/>
+        <item x="58"/>
+        <item x="43"/>
+        <item x="30"/>
+        <item x="42"/>
+        <item x="21"/>
+        <item x="38"/>
+        <item x="46"/>
+        <item x="22"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="40"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="45"/>
+        <item x="27"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="33"/>
+        <item x="31"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="59"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20499,2354 +22694,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>6.6269600000000004</v>
-      </c>
-      <c r="F2">
-        <v>3.017976</v>
-      </c>
-      <c r="G2">
-        <v>1.276073</v>
-      </c>
-      <c r="H2">
-        <v>5.3487489999999998</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>2.278661</v>
-      </c>
-      <c r="L2">
-        <v>2.6631740000000002</v>
-      </c>
-      <c r="M2">
-        <v>0.26524399999999998</v>
-      </c>
-      <c r="N2">
-        <v>0.12453599999999999</v>
-      </c>
-      <c r="O2">
-        <v>3.1700000000000001E-4</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>6.6349900000000002</v>
-      </c>
-      <c r="F3">
-        <v>3.0143209999999998</v>
-      </c>
-      <c r="G3">
-        <v>1.2814399999999999</v>
-      </c>
-      <c r="H3">
-        <v>5.3514290000000004</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>2.2647659999999998</v>
-      </c>
-      <c r="L3">
-        <v>2.6472150000000001</v>
-      </c>
-      <c r="M3">
-        <v>0.28209000000000001</v>
-      </c>
-      <c r="N3">
-        <v>9.0397000000000005E-2</v>
-      </c>
-      <c r="O3">
-        <v>3.1E-4</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>6.6271199999999997</v>
-      </c>
-      <c r="F4">
-        <v>3.017903</v>
-      </c>
-      <c r="G4">
-        <v>1.2863260000000001</v>
-      </c>
-      <c r="H4">
-        <v>5.338565</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>2.2633049999999999</v>
-      </c>
-      <c r="L4">
-        <v>2.6658970000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.27777099999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.12356300000000001</v>
-      </c>
-      <c r="O4">
-        <v>3.4699999999999998E-4</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>6.6302099999999999</v>
-      </c>
-      <c r="F5">
-        <v>3.0164960000000001</v>
-      </c>
-      <c r="G5">
-        <v>1.2793650000000001</v>
-      </c>
-      <c r="H5">
-        <v>5.348719</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>2.251493</v>
-      </c>
-      <c r="L5">
-        <v>2.6306340000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.28403099999999998</v>
-      </c>
-      <c r="N5">
-        <v>0.10048799999999999</v>
-      </c>
-      <c r="O5">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>6.6519199999999996</v>
-      </c>
-      <c r="F6">
-        <v>3.0066510000000002</v>
-      </c>
-      <c r="G6">
-        <v>1.2779210000000001</v>
-      </c>
-      <c r="H6">
-        <v>5.3713730000000002</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>2.2660110000000002</v>
-      </c>
-      <c r="L6">
-        <v>2.6486879999999999</v>
-      </c>
-      <c r="M6">
-        <v>0.29182599999999997</v>
-      </c>
-      <c r="N6">
-        <v>9.6991999999999995E-2</v>
-      </c>
-      <c r="O6">
-        <v>3.4299999999999999E-4</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>6.6523399999999997</v>
-      </c>
-      <c r="F7">
-        <v>3.0064609999999998</v>
-      </c>
-      <c r="G7">
-        <v>1.2780899999999999</v>
-      </c>
-      <c r="H7">
-        <v>5.3716939999999997</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2.2629100000000002</v>
-      </c>
-      <c r="L7">
-        <v>2.6410010000000002</v>
-      </c>
-      <c r="M7">
-        <v>0.289497</v>
-      </c>
-      <c r="N7">
-        <v>9.4222E-2</v>
-      </c>
-      <c r="O7">
-        <v>3.4900000000000003E-4</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>6.6104399999999996</v>
-      </c>
-      <c r="F8">
-        <v>3.0255179999999999</v>
-      </c>
-      <c r="G8">
-        <v>1.2710760000000001</v>
-      </c>
-      <c r="H8">
-        <v>5.3371139999999997</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>2.2694869999999998</v>
-      </c>
-      <c r="L8">
-        <v>2.655662</v>
-      </c>
-      <c r="M8">
-        <v>0.29555399999999998</v>
-      </c>
-      <c r="N8">
-        <v>9.6979999999999997E-2</v>
-      </c>
-      <c r="O8">
-        <v>3.1300000000000002E-4</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>6.6467299999999998</v>
-      </c>
-      <c r="F9">
-        <v>3.0089990000000002</v>
-      </c>
-      <c r="G9">
-        <v>1.272049</v>
-      </c>
-      <c r="H9">
-        <v>5.3720549999999996</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>2.2736960000000002</v>
-      </c>
-      <c r="L9">
-        <v>2.6436229999999998</v>
-      </c>
-      <c r="M9">
-        <v>0.29015999999999997</v>
-      </c>
-      <c r="N9">
-        <v>9.7091999999999998E-2</v>
-      </c>
-      <c r="O9">
-        <v>4.0999999999999999E-4</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>6.6461300000000003</v>
-      </c>
-      <c r="F10">
-        <v>3.0092720000000002</v>
-      </c>
-      <c r="G10">
-        <v>1.2893619999999999</v>
-      </c>
-      <c r="H10">
-        <v>5.3545990000000003</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>2.2460309999999999</v>
-      </c>
-      <c r="L10">
-        <v>2.6647210000000001</v>
-      </c>
-      <c r="M10">
-        <v>0.30637900000000001</v>
-      </c>
-      <c r="N10">
-        <v>0.103867</v>
-      </c>
-      <c r="O10">
-        <v>6.6699999999999995E-4</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>6.5741399999999999</v>
-      </c>
-      <c r="F11">
-        <v>3.042224</v>
-      </c>
-      <c r="G11">
-        <v>1.2700149999999999</v>
-      </c>
-      <c r="H11">
-        <v>5.3018049999999999</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>2.2517049999999998</v>
-      </c>
-      <c r="L11">
-        <v>2.6406109999999998</v>
-      </c>
-      <c r="M11">
-        <v>0.28700599999999998</v>
-      </c>
-      <c r="N11">
-        <v>0.10494199999999999</v>
-      </c>
-      <c r="O11">
-        <v>2.5399999999999999E-4</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>6.4833499999999997</v>
-      </c>
-      <c r="F12">
-        <v>3.0848239999999998</v>
-      </c>
-      <c r="G12">
-        <v>1.2214959999999999</v>
-      </c>
-      <c r="H12">
-        <v>5.1954330000000004</v>
-      </c>
-      <c r="I12">
-        <v>8.0689999999999998E-3</v>
-      </c>
-      <c r="J12">
-        <v>5.4780000000000002E-2</v>
-      </c>
-      <c r="K12">
-        <v>2.2254360000000002</v>
-      </c>
-      <c r="L12">
-        <v>2.512127</v>
-      </c>
-      <c r="M12">
-        <v>0.25482300000000002</v>
-      </c>
-      <c r="N12">
-        <v>9.4614000000000004E-2</v>
-      </c>
-      <c r="O12">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="P12">
-        <v>1.0267999999999999E-2</v>
-      </c>
-      <c r="Q12">
-        <v>3.9300000000000001E-4</v>
-      </c>
-      <c r="R12">
-        <v>9.8799999999999995E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>6.4696300000000004</v>
-      </c>
-      <c r="F13">
-        <v>3.0913680000000001</v>
-      </c>
-      <c r="G13">
-        <v>1.2205330000000001</v>
-      </c>
-      <c r="H13">
-        <v>5.1853699999999998</v>
-      </c>
-      <c r="I13">
-        <v>8.3960000000000007E-3</v>
-      </c>
-      <c r="J13">
-        <v>5.1664000000000002E-2</v>
-      </c>
-      <c r="K13">
-        <v>2.2253219999999998</v>
-      </c>
-      <c r="L13">
-        <v>2.5278849999999999</v>
-      </c>
-      <c r="M13">
-        <v>0.254027</v>
-      </c>
-      <c r="N13">
-        <v>9.8011000000000001E-2</v>
-      </c>
-      <c r="O13">
-        <v>2.2699999999999999E-4</v>
-      </c>
-      <c r="P13">
-        <v>1.0482999999999999E-2</v>
-      </c>
-      <c r="Q13">
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="R13">
-        <v>1.1720000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>6.3468400000000003</v>
-      </c>
-      <c r="F14">
-        <v>3.1511719999999999</v>
-      </c>
-      <c r="G14">
-        <v>1.205797</v>
-      </c>
-      <c r="H14">
-        <v>5.07653</v>
-      </c>
-      <c r="I14">
-        <v>9.6559999999999997E-3</v>
-      </c>
-      <c r="J14">
-        <v>5.1226000000000001E-2</v>
-      </c>
-      <c r="K14">
-        <v>2.2395149999999999</v>
-      </c>
-      <c r="L14">
-        <v>2.568254</v>
-      </c>
-      <c r="M14">
-        <v>0.25614199999999998</v>
-      </c>
-      <c r="N14">
-        <v>0.10825799999999999</v>
-      </c>
-      <c r="O14">
-        <v>2.5300000000000002E-4</v>
-      </c>
-      <c r="P14">
-        <v>1.1004999999999999E-2</v>
-      </c>
-      <c r="Q14">
-        <v>5.1900000000000004E-4</v>
-      </c>
-      <c r="R14">
-        <v>1.8630000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>6.4891300000000003</v>
-      </c>
-      <c r="F15">
-        <v>3.0820750000000001</v>
-      </c>
-      <c r="G15">
-        <v>1.2185999999999999</v>
-      </c>
-      <c r="H15">
-        <v>5.2067050000000004</v>
-      </c>
-      <c r="I15">
-        <v>8.1849999999999996E-3</v>
-      </c>
-      <c r="J15">
-        <v>5.1189999999999999E-2</v>
-      </c>
-      <c r="K15">
-        <v>2.2315619999999998</v>
-      </c>
-      <c r="L15">
-        <v>2.5426570000000002</v>
-      </c>
-      <c r="M15">
-        <v>0.25233100000000003</v>
-      </c>
-      <c r="N15">
-        <v>0.10985399999999999</v>
-      </c>
-      <c r="O15">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="P15">
-        <v>1.1095000000000001E-2</v>
-      </c>
-      <c r="Q15">
-        <v>3.4400000000000001E-4</v>
-      </c>
-      <c r="R15">
-        <v>1.1379999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>6.4601100000000002</v>
-      </c>
-      <c r="F16">
-        <v>3.0959240000000001</v>
-      </c>
-      <c r="G16">
-        <v>1.2221979999999999</v>
-      </c>
-      <c r="H16">
-        <v>5.1741659999999996</v>
-      </c>
-      <c r="I16">
-        <v>8.8350000000000008E-3</v>
-      </c>
-      <c r="J16">
-        <v>5.1222999999999998E-2</v>
-      </c>
-      <c r="K16">
-        <v>2.236669</v>
-      </c>
-      <c r="L16">
-        <v>2.542446</v>
-      </c>
-      <c r="M16">
-        <v>0.25581599999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.103853</v>
-      </c>
-      <c r="O16">
-        <v>3.6299999999999999E-4</v>
-      </c>
-      <c r="P16">
-        <v>1.3043000000000001E-2</v>
-      </c>
-      <c r="Q16">
-        <v>4.3100000000000001E-4</v>
-      </c>
-      <c r="R16">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>6.4498600000000001</v>
-      </c>
-      <c r="F17">
-        <v>3.1008439999999999</v>
-      </c>
-      <c r="G17">
-        <v>1.2242360000000001</v>
-      </c>
-      <c r="H17">
-        <v>5.1627140000000002</v>
-      </c>
-      <c r="I17">
-        <v>7.6239999999999997E-3</v>
-      </c>
-      <c r="J17">
-        <v>5.1450000000000003E-2</v>
-      </c>
-      <c r="K17">
-        <v>2.216736</v>
-      </c>
-      <c r="L17">
-        <v>2.5143819999999999</v>
-      </c>
-      <c r="M17">
-        <v>0.23700199999999999</v>
-      </c>
-      <c r="N17">
-        <v>7.7966999999999995E-2</v>
-      </c>
-      <c r="O17">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="P17">
-        <v>1.1271E-2</v>
-      </c>
-      <c r="Q17">
-        <v>3.3599999999999998E-4</v>
-      </c>
-      <c r="R17">
-        <v>1.111E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>6.3876400000000002</v>
-      </c>
-      <c r="F18">
-        <v>3.1310449999999999</v>
-      </c>
-      <c r="G18">
-        <v>1.2038180000000001</v>
-      </c>
-      <c r="H18">
-        <v>5.1137180000000004</v>
-      </c>
-      <c r="I18">
-        <v>1.0142999999999999E-2</v>
-      </c>
-      <c r="J18">
-        <v>5.5759000000000003E-2</v>
-      </c>
-      <c r="K18">
-        <v>2.2405300000000001</v>
-      </c>
-      <c r="L18">
-        <v>2.5460940000000001</v>
-      </c>
-      <c r="M18">
-        <v>0.255824</v>
-      </c>
-      <c r="N18">
-        <v>0.11032699999999999</v>
-      </c>
-      <c r="O18">
-        <v>2.8699999999999998E-4</v>
-      </c>
-      <c r="P18">
-        <v>1.1417999999999999E-2</v>
-      </c>
-      <c r="Q18">
-        <v>4.37E-4</v>
-      </c>
-      <c r="R18">
-        <v>1.111E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>6.4702200000000003</v>
-      </c>
-      <c r="F19">
-        <v>3.0910859999999998</v>
-      </c>
-      <c r="G19">
-        <v>1.2220629999999999</v>
-      </c>
-      <c r="H19">
-        <v>5.1841049999999997</v>
-      </c>
-      <c r="I19">
-        <v>8.2419999999999993E-3</v>
-      </c>
-      <c r="J19">
-        <v>5.2096999999999997E-2</v>
-      </c>
-      <c r="K19">
-        <v>2.2372019999999999</v>
-      </c>
-      <c r="L19">
-        <v>2.5472389999999998</v>
-      </c>
-      <c r="M19">
-        <v>0.25611699999999998</v>
-      </c>
-      <c r="N19">
-        <v>0.110142</v>
-      </c>
-      <c r="O19">
-        <v>2.3800000000000001E-4</v>
-      </c>
-      <c r="P19">
-        <v>1.1584000000000001E-2</v>
-      </c>
-      <c r="Q19">
-        <v>3.6900000000000002E-4</v>
-      </c>
-      <c r="R19">
-        <v>1.052E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>6.4546799999999998</v>
-      </c>
-      <c r="F20">
-        <v>3.0985290000000001</v>
-      </c>
-      <c r="G20">
-        <v>1.221773</v>
-      </c>
-      <c r="H20">
-        <v>5.1688419999999997</v>
-      </c>
-      <c r="I20">
-        <v>8.0669999999999995E-3</v>
-      </c>
-      <c r="J20">
-        <v>5.1427E-2</v>
-      </c>
-      <c r="K20">
-        <v>2.220351</v>
-      </c>
-      <c r="L20">
-        <v>2.527714</v>
-      </c>
-      <c r="M20">
-        <v>0.24943799999999999</v>
-      </c>
-      <c r="N20">
-        <v>9.8269999999999996E-2</v>
-      </c>
-      <c r="O20">
-        <v>3.1500000000000001E-4</v>
-      </c>
-      <c r="P20">
-        <v>1.0905E-2</v>
-      </c>
-      <c r="Q20">
-        <v>4.26E-4</v>
-      </c>
-      <c r="R20">
-        <v>1.0330000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>6.4013499999999999</v>
-      </c>
-      <c r="F21">
-        <v>3.124339</v>
-      </c>
-      <c r="G21">
-        <v>1.2053560000000001</v>
-      </c>
-      <c r="H21">
-        <v>5.1297610000000002</v>
-      </c>
-      <c r="I21">
-        <v>8.9669999999999993E-3</v>
-      </c>
-      <c r="J21">
-        <v>5.3328E-2</v>
-      </c>
-      <c r="K21">
-        <v>2.2146629999999998</v>
-      </c>
-      <c r="L21">
-        <v>2.5211049999999999</v>
-      </c>
-      <c r="M21">
-        <v>0.25005899999999998</v>
-      </c>
-      <c r="N21">
-        <v>9.4641000000000003E-2</v>
-      </c>
-      <c r="O21">
-        <v>2.5399999999999999E-4</v>
-      </c>
-      <c r="P21">
-        <v>1.1823999999999999E-2</v>
-      </c>
-      <c r="Q21">
-        <v>3.4200000000000002E-4</v>
-      </c>
-      <c r="R21">
-        <v>1.3749999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>6.8059799999999999</v>
-      </c>
-      <c r="F22">
-        <v>2.9385910000000002</v>
-      </c>
-      <c r="G22">
-        <v>1.4336180000000001</v>
-      </c>
-      <c r="H22">
-        <v>5.3703339999999997</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>2.2638590000000001</v>
-      </c>
-      <c r="L22">
-        <v>2.6881719999999998</v>
-      </c>
-      <c r="M22">
-        <v>0.27712199999999998</v>
-      </c>
-      <c r="N22">
-        <v>0.102128</v>
-      </c>
-      <c r="O22">
-        <v>3.28E-4</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>6.7834899999999996</v>
-      </c>
-      <c r="F23">
-        <v>2.9483329999999999</v>
-      </c>
-      <c r="G23">
-        <v>1.430725</v>
-      </c>
-      <c r="H23">
-        <v>5.350454</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>2.2659009999999999</v>
-      </c>
-      <c r="L23">
-        <v>2.669422</v>
-      </c>
-      <c r="M23">
-        <v>0.284472</v>
-      </c>
-      <c r="N23">
-        <v>9.7919999999999993E-2</v>
-      </c>
-      <c r="O23">
-        <v>4.1300000000000001E-4</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>6.7967700000000004</v>
-      </c>
-      <c r="F24">
-        <v>2.9425729999999999</v>
-      </c>
-      <c r="G24">
-        <v>1.432199</v>
-      </c>
-      <c r="H24">
-        <v>5.3625210000000001</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>2.2640709999999999</v>
-      </c>
-      <c r="L24">
-        <v>2.6674380000000002</v>
-      </c>
-      <c r="M24">
-        <v>0.27655800000000003</v>
-      </c>
-      <c r="N24">
-        <v>0.101867</v>
-      </c>
-      <c r="O24">
-        <v>3.6299999999999999E-4</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>6.7830000000000004</v>
-      </c>
-      <c r="F25">
-        <v>2.9485459999999999</v>
-      </c>
-      <c r="G25">
-        <v>1.4329829999999999</v>
-      </c>
-      <c r="H25">
-        <v>5.3477920000000001</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>2.2527469999999998</v>
-      </c>
-      <c r="L25">
-        <v>2.6781619999999999</v>
-      </c>
-      <c r="M25">
-        <v>0.28553200000000001</v>
-      </c>
-      <c r="N25">
-        <v>9.955E-2</v>
-      </c>
-      <c r="O25">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>6.8067500000000001</v>
-      </c>
-      <c r="F26">
-        <v>2.9382609999999998</v>
-      </c>
-      <c r="G26">
-        <v>1.4357420000000001</v>
-      </c>
-      <c r="H26">
-        <v>5.3688849999999997</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>2.2622270000000002</v>
-      </c>
-      <c r="L26">
-        <v>2.657222</v>
-      </c>
-      <c r="M26">
-        <v>0.27957900000000002</v>
-      </c>
-      <c r="N26">
-        <v>0.100885</v>
-      </c>
-      <c r="O26">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>6.7994899999999996</v>
-      </c>
-      <c r="F27">
-        <v>2.9413969999999998</v>
-      </c>
-      <c r="G27">
-        <v>1.434329</v>
-      </c>
-      <c r="H27">
-        <v>5.3629819999999997</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>2.2604579999999999</v>
-      </c>
-      <c r="L27">
-        <v>2.671033</v>
-      </c>
-      <c r="M27">
-        <v>0.28362999999999999</v>
-      </c>
-      <c r="N27">
-        <v>0.102327</v>
-      </c>
-      <c r="O27">
-        <v>3.3199999999999999E-4</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>6.7954999999999997</v>
-      </c>
-      <c r="F28">
-        <v>2.9431259999999999</v>
-      </c>
-      <c r="G28">
-        <v>1.434707</v>
-      </c>
-      <c r="H28">
-        <v>5.3585839999999996</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2.2695560000000001</v>
-      </c>
-      <c r="L28">
-        <v>2.6848399999999999</v>
-      </c>
-      <c r="M28">
-        <v>0.282028</v>
-      </c>
-      <c r="N28">
-        <v>0.103714</v>
-      </c>
-      <c r="O28">
-        <v>3.1799999999999998E-4</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>6.7695100000000004</v>
-      </c>
-      <c r="F29">
-        <v>2.9544220000000001</v>
-      </c>
-      <c r="G29">
-        <v>1.4240809999999999</v>
-      </c>
-      <c r="H29">
-        <v>5.3433510000000002</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>2.2711570000000001</v>
-      </c>
-      <c r="L29">
-        <v>2.6892079999999998</v>
-      </c>
-      <c r="M29">
-        <v>0.28049099999999999</v>
-      </c>
-      <c r="N29">
-        <v>9.6570000000000003E-2</v>
-      </c>
-      <c r="O29">
-        <v>2.6699999999999998E-4</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>6.7690400000000004</v>
-      </c>
-      <c r="F30">
-        <v>2.9546299999999999</v>
-      </c>
-      <c r="G30">
-        <v>1.4228940000000001</v>
-      </c>
-      <c r="H30">
-        <v>5.3423850000000002</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>2.2708379999999999</v>
-      </c>
-      <c r="L30">
-        <v>2.6714229999999999</v>
-      </c>
-      <c r="M30">
-        <v>0.27948200000000001</v>
-      </c>
-      <c r="N30">
-        <v>0.101525</v>
-      </c>
-      <c r="O30">
-        <v>4.2499999999999998E-4</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>6.8157500000000004</v>
-      </c>
-      <c r="F31">
-        <v>2.9343780000000002</v>
-      </c>
-      <c r="G31">
-        <v>1.4397230000000001</v>
-      </c>
-      <c r="H31">
-        <v>5.3739460000000001</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>2.2528250000000001</v>
-      </c>
-      <c r="L31">
-        <v>2.6571419999999999</v>
-      </c>
-      <c r="M31">
-        <v>0.29158200000000001</v>
-      </c>
-      <c r="N31">
-        <v>0.101253</v>
-      </c>
-      <c r="O31">
-        <v>7.5100000000000004E-4</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>6.6495300000000004</v>
-      </c>
-      <c r="F32">
-        <v>3.00773</v>
-      </c>
-      <c r="G32">
-        <v>1.3921110000000001</v>
-      </c>
-      <c r="H32">
-        <v>5.1882840000000003</v>
-      </c>
-      <c r="I32">
-        <v>8.7039999999999999E-3</v>
-      </c>
-      <c r="J32">
-        <v>5.6287999999999998E-2</v>
-      </c>
-      <c r="K32">
-        <v>2.2358289999999998</v>
-      </c>
-      <c r="L32">
-        <v>2.6036589999999999</v>
-      </c>
-      <c r="M32">
-        <v>0.24770600000000001</v>
-      </c>
-      <c r="N32">
-        <v>7.7692999999999998E-2</v>
-      </c>
-      <c r="O32">
-        <v>1.8799999999999999E-4</v>
-      </c>
-      <c r="P32">
-        <v>1.0246999999999999E-2</v>
-      </c>
-      <c r="Q32">
-        <v>3.3799999999999998E-4</v>
-      </c>
-      <c r="R32">
-        <v>9.7199999999999999E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>20</v>
-      </c>
-      <c r="E33">
-        <v>6.6440900000000003</v>
-      </c>
-      <c r="F33">
-        <v>3.0101930000000001</v>
-      </c>
-      <c r="G33">
-        <v>1.3864810000000001</v>
-      </c>
-      <c r="H33">
-        <v>5.191783</v>
-      </c>
-      <c r="I33">
-        <v>9.4520000000000003E-3</v>
-      </c>
-      <c r="J33">
-        <v>5.2630000000000003E-2</v>
-      </c>
-      <c r="K33">
-        <v>2.2136040000000001</v>
-      </c>
-      <c r="L33">
-        <v>2.6140210000000002</v>
-      </c>
-      <c r="M33">
-        <v>0.23346700000000001</v>
-      </c>
-      <c r="N33">
-        <v>8.5761000000000004E-2</v>
-      </c>
-      <c r="O33">
-        <v>2.5999999999999998E-4</v>
-      </c>
-      <c r="P33">
-        <v>1.1552E-2</v>
-      </c>
-      <c r="Q33">
-        <v>3.9300000000000001E-4</v>
-      </c>
-      <c r="R33">
-        <v>1.196E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>6.6760000000000002</v>
-      </c>
-      <c r="F34">
-        <v>2.995806</v>
-      </c>
-      <c r="G34">
-        <v>1.38876</v>
-      </c>
-      <c r="H34">
-        <v>5.2288509999999997</v>
-      </c>
-      <c r="I34">
-        <v>8.5950000000000002E-3</v>
-      </c>
-      <c r="J34">
-        <v>4.6262999999999999E-2</v>
-      </c>
-      <c r="K34">
-        <v>2.217174</v>
-      </c>
-      <c r="L34">
-        <v>2.598579</v>
-      </c>
-      <c r="M34">
-        <v>0.238399</v>
-      </c>
-      <c r="N34">
-        <v>9.2826000000000006E-2</v>
-      </c>
-      <c r="O34">
-        <v>2.03E-4</v>
-      </c>
-      <c r="P34">
-        <v>1.0899000000000001E-2</v>
-      </c>
-      <c r="Q34">
-        <v>3.2899999999999997E-4</v>
-      </c>
-      <c r="R34">
-        <v>1.142E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>6.6246099999999997</v>
-      </c>
-      <c r="F35">
-        <v>3.0190429999999999</v>
-      </c>
-      <c r="G35">
-        <v>1.3800509999999999</v>
-      </c>
-      <c r="H35">
-        <v>5.1817229999999999</v>
-      </c>
-      <c r="I35">
-        <v>9.0399999999999994E-3</v>
-      </c>
-      <c r="J35">
-        <v>4.9938000000000003E-2</v>
-      </c>
-      <c r="K35">
-        <v>2.2156449999999999</v>
-      </c>
-      <c r="L35">
-        <v>2.6275059999999999</v>
-      </c>
-      <c r="M35">
-        <v>0.22813800000000001</v>
-      </c>
-      <c r="N35">
-        <v>0.101369</v>
-      </c>
-      <c r="O35">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="P35">
-        <v>1.1956E-2</v>
-      </c>
-      <c r="Q35">
-        <v>6.0400000000000004E-4</v>
-      </c>
-      <c r="R35">
-        <v>1.2160000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>6.6436000000000002</v>
-      </c>
-      <c r="F36">
-        <v>3.010418</v>
-      </c>
-      <c r="G36">
-        <v>1.3932059999999999</v>
-      </c>
-      <c r="H36">
-        <v>5.1857680000000004</v>
-      </c>
-      <c r="I36">
-        <v>8.9090000000000003E-3</v>
-      </c>
-      <c r="J36">
-        <v>5.1846000000000003E-2</v>
-      </c>
-      <c r="K36">
-        <v>2.2174550000000002</v>
-      </c>
-      <c r="L36">
-        <v>2.5912299999999999</v>
-      </c>
-      <c r="M36">
-        <v>0.227465</v>
-      </c>
-      <c r="N36">
-        <v>9.3230999999999994E-2</v>
-      </c>
-      <c r="O36">
-        <v>2.8699999999999998E-4</v>
-      </c>
-      <c r="P36">
-        <v>1.1946E-2</v>
-      </c>
-      <c r="Q36">
-        <v>3.8400000000000001E-4</v>
-      </c>
-      <c r="R36">
-        <v>1.1410000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>6.6315200000000001</v>
-      </c>
-      <c r="F37">
-        <v>3.0158990000000001</v>
-      </c>
-      <c r="G37">
-        <v>1.3823479999999999</v>
-      </c>
-      <c r="H37">
-        <v>5.181692</v>
-      </c>
-      <c r="I37">
-        <v>9.6950000000000005E-3</v>
-      </c>
-      <c r="J37">
-        <v>5.3941000000000003E-2</v>
-      </c>
-      <c r="K37">
-        <v>2.250105</v>
-      </c>
-      <c r="L37">
-        <v>2.5988509999999998</v>
-      </c>
-      <c r="M37">
-        <v>0.26320399999999999</v>
-      </c>
-      <c r="N37">
-        <v>7.4172000000000002E-2</v>
-      </c>
-      <c r="O37">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="P37">
-        <v>9.3989999999999994E-3</v>
-      </c>
-      <c r="Q37">
-        <v>3.48E-4</v>
-      </c>
-      <c r="R37">
-        <v>9.5500000000000001E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <v>6.6225300000000002</v>
-      </c>
-      <c r="F38">
-        <v>3.0199940000000001</v>
-      </c>
-      <c r="G38">
-        <v>1.381432</v>
-      </c>
-      <c r="H38">
-        <v>5.1785699999999997</v>
-      </c>
-      <c r="I38">
-        <v>1.0998000000000001E-2</v>
-      </c>
-      <c r="J38">
-        <v>4.7940999999999998E-2</v>
-      </c>
-      <c r="K38">
-        <v>2.2770199999999998</v>
-      </c>
-      <c r="L38">
-        <v>2.628018</v>
-      </c>
-      <c r="M38">
-        <v>0.221135</v>
-      </c>
-      <c r="N38">
-        <v>7.2080000000000005E-2</v>
-      </c>
-      <c r="O38">
-        <v>2.2900000000000001E-4</v>
-      </c>
-      <c r="P38">
-        <v>1.0196E-2</v>
-      </c>
-      <c r="Q38">
-        <v>3.28E-4</v>
-      </c>
-      <c r="R38">
-        <v>1.356E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="E39">
-        <v>6.6191899999999997</v>
-      </c>
-      <c r="F39">
-        <v>3.0215179999999999</v>
-      </c>
-      <c r="G39">
-        <v>1.383318</v>
-      </c>
-      <c r="H39">
-        <v>5.1678769999999998</v>
-      </c>
-      <c r="I39">
-        <v>1.0125E-2</v>
-      </c>
-      <c r="J39">
-        <v>5.3817999999999998E-2</v>
-      </c>
-      <c r="K39">
-        <v>2.2444229999999998</v>
-      </c>
-      <c r="L39">
-        <v>2.5994139999999999</v>
-      </c>
-      <c r="M39">
-        <v>0.23772299999999999</v>
-      </c>
-      <c r="N39">
-        <v>7.3657E-2</v>
-      </c>
-      <c r="O39">
-        <v>2.14E-4</v>
-      </c>
-      <c r="P39">
-        <v>9.4800000000000006E-3</v>
-      </c>
-      <c r="Q39">
-        <v>3.3500000000000001E-4</v>
-      </c>
-      <c r="R39">
-        <v>9.8700000000000003E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40">
-        <v>20</v>
-      </c>
-      <c r="E40">
-        <v>6.64194</v>
-      </c>
-      <c r="F40">
-        <v>3.0111680000000001</v>
-      </c>
-      <c r="G40">
-        <v>1.3830279999999999</v>
-      </c>
-      <c r="H40">
-        <v>5.1955239999999998</v>
-      </c>
-      <c r="I40">
-        <v>1.1087E-2</v>
-      </c>
-      <c r="J40">
-        <v>4.8686E-2</v>
-      </c>
-      <c r="K40">
-        <v>2.2527330000000001</v>
-      </c>
-      <c r="L40">
-        <v>2.6024690000000001</v>
-      </c>
-      <c r="M40">
-        <v>0.224828</v>
-      </c>
-      <c r="N40">
-        <v>7.4588000000000002E-2</v>
-      </c>
-      <c r="O40">
-        <v>2.0900000000000001E-4</v>
-      </c>
-      <c r="P40">
-        <v>1.0893999999999999E-2</v>
-      </c>
-      <c r="Q40">
-        <v>4.0400000000000001E-4</v>
-      </c>
-      <c r="R40">
-        <v>1.0460000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41">
-        <v>20</v>
-      </c>
-      <c r="E41">
-        <v>6.6428099999999999</v>
-      </c>
-      <c r="F41">
-        <v>3.0107740000000001</v>
-      </c>
-      <c r="G41">
-        <v>1.390047</v>
-      </c>
-      <c r="H41">
-        <v>5.1815490000000004</v>
-      </c>
-      <c r="I41">
-        <v>1.014E-2</v>
-      </c>
-      <c r="J41">
-        <v>5.7209000000000003E-2</v>
-      </c>
-      <c r="K41">
-        <v>2.220523</v>
-      </c>
-      <c r="L41">
-        <v>2.5914990000000002</v>
-      </c>
-      <c r="M41">
-        <v>0.23400199999999999</v>
-      </c>
-      <c r="N41">
-        <v>9.8376000000000005E-2</v>
-      </c>
-      <c r="O41">
-        <v>2.5300000000000002E-4</v>
-      </c>
-      <c r="P41">
-        <v>1.3306999999999999E-2</v>
-      </c>
-      <c r="Q41">
-        <v>5.5199999999999997E-4</v>
-      </c>
-      <c r="R41">
-        <v>1.2470000000000001E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="31" width="9.1640625" customWidth="1"/>
     <col min="32" max="32" width="8.1640625" customWidth="1"/>
     <col min="33" max="37" width="9.1640625" customWidth="1"/>
@@ -22877,6 +22741,14 @@
     <col min="124" max="124" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3" spans="1:9">
       <c r="B3" s="4" t="s">
         <v>34</v>
@@ -22887,28 +22759,28 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -22916,28 +22788,28 @@
         <v>24</v>
       </c>
       <c r="B5" s="6">
-        <v>2.2473550250000001</v>
+        <v>2.2316248499999998</v>
       </c>
       <c r="C5" s="6">
-        <v>40</v>
+        <v>2.5702574500000002</v>
       </c>
       <c r="D5" s="6">
-        <v>40</v>
+        <v>0.24388229999999997</v>
       </c>
       <c r="E5" s="6">
-        <v>40</v>
+        <v>9.2484499999999997E-2</v>
       </c>
       <c r="F5" s="6">
-        <v>40</v>
+        <v>2.5224999999999998E-4</v>
       </c>
       <c r="G5" s="6">
-        <v>40</v>
+        <v>1.1138599999999999E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>40</v>
+        <v>3.9890000000000005E-4</v>
       </c>
       <c r="I5" s="6">
-        <v>40</v>
+        <v>1.1650499999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -22945,28 +22817,28 @@
         <v>29</v>
       </c>
       <c r="B6" s="6">
-        <v>1.9915549999999997E-2</v>
+        <v>2.1732899999999999E-2</v>
       </c>
       <c r="C6" s="6">
-        <v>20</v>
+        <v>0.18981690000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>20</v>
+        <v>1.2841399999999999E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>20</v>
+        <v>2.7595000000000002E-3</v>
       </c>
       <c r="F6" s="6">
-        <v>20</v>
+        <v>1.13E-5</v>
       </c>
       <c r="G6" s="6">
-        <v>20</v>
+        <v>5.154999999999999E-4</v>
       </c>
       <c r="H6" s="6">
-        <v>20</v>
+        <v>2.4100000000000003E-5</v>
       </c>
       <c r="I6" s="6">
-        <v>20</v>
+        <v>6.4999999999999994E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -22974,28 +22846,28 @@
         <v>28</v>
       </c>
       <c r="B7" s="6">
-        <v>1.0847245833333334</v>
+        <v>1.0850563666666666</v>
       </c>
       <c r="C7" s="6">
-        <v>60</v>
+        <v>0.66605520000000007</v>
       </c>
       <c r="D7" s="6">
-        <v>60</v>
+        <v>4.7206600000000001E-2</v>
       </c>
       <c r="E7" s="6">
-        <v>60</v>
+        <v>1.5348199999999999E-2</v>
       </c>
       <c r="F7" s="6">
-        <v>60</v>
+        <v>6.8833333333333303E-5</v>
       </c>
       <c r="G7" s="6">
-        <v>60</v>
+        <v>2.2049333333333337E-3</v>
       </c>
       <c r="H7" s="6">
-        <v>60</v>
+        <v>9.2999999999999997E-5</v>
       </c>
       <c r="I7" s="6">
-        <v>60</v>
+        <v>2.3066666666666659E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -23003,33 +22875,34 @@
         <v>31</v>
       </c>
       <c r="B8" s="6">
-        <v>1.2947998916666663</v>
+        <v>1.2900252833333326</v>
       </c>
       <c r="C8" s="6">
-        <v>120</v>
+        <v>1.2214162333333332</v>
       </c>
       <c r="D8" s="6">
-        <v>120</v>
+        <v>0.10703763333333333</v>
       </c>
       <c r="E8" s="6">
-        <v>120</v>
+        <v>3.8962183333333344E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>120</v>
+        <v>1.203833333333333E-4</v>
       </c>
       <c r="G8" s="6">
-        <v>120</v>
+        <v>4.9012500000000002E-3</v>
       </c>
       <c r="H8" s="6">
-        <v>120</v>
+        <v>1.8348333333333339E-4</v>
       </c>
       <c r="I8" s="6">
-        <v>120</v>
+        <v>5.1451666666666655E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -23038,12 +22911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23156,12 +23029,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23188,16 +23061,16 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>34</v>
@@ -23223,16 +23096,16 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -23358,4 +23231,202 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I8" sqref="A5:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.0893444999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.76352629999999988</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.3672300000000004E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.28501E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.3132000000000001E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>9.0199999999999997E-5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2.3090000000000003E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.0883417999999998</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.61336140000000006</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4.9327099999999999E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.5864699999999999E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>7.6299999999999984E-5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.1158000000000001E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>9.2800000000000006E-5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.4239999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.0774828000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.62127790000000005</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.8620400000000008E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.7329799999999999E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6.6899999999999986E-5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.1857999999999999E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>9.5999999999999989E-5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.1869999999999998E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.0850563666666666</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.66605520000000007</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4.7206600000000001E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.5348199999999999E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.8833333333333317E-5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.2049333333333337E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>9.2999999999999997E-5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2.3066666666666664E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>